--- a/Data/PrevComp.xlsx
+++ b/Data/PrevComp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oosemeke/Box/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oosemeke/Documents/Prevalence simulations/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F214F38-8F86-8A49-8ECF-31C4AE3156F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF63AE-CE5A-0545-A7B3-EB7C96DCFE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="3940" windowWidth="24460" windowHeight="11180" xr2:uid="{82FE1205-5E11-A54D-907B-AFE34F3518C8}"/>
+    <workbookView xWindow="4400" yWindow="4820" windowWidth="24460" windowHeight="11180" xr2:uid="{82FE1205-5E11-A54D-907B-AFE34F3518C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="27">
   <si>
     <t>Farm</t>
   </si>
@@ -87,9 +87,6 @@
     <t>litterlessthan12</t>
   </si>
   <si>
-    <t>EAST</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>NEGATIVE</t>
-  </si>
-  <si>
-    <t>EGP</t>
   </si>
   <si>
     <t>A</t>
@@ -111,22 +105,16 @@
     <t>C</t>
   </si>
   <si>
-    <t>G&amp;W LEIBOL</t>
-  </si>
-  <si>
-    <t>LONGRUN</t>
-  </si>
-  <si>
-    <t>PETE SCHNEIDER</t>
-  </si>
-  <si>
-    <t>SUGAR RIVER</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>FOFC</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -481,7 +469,7 @@
   <dimension ref="A1:R218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C217" sqref="C217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -544,13 +532,13 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -578,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2">
         <v>0.57299999999999995</v>
@@ -601,13 +589,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -635,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3">
         <v>0.57299999999999995</v>
@@ -658,13 +646,13 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -692,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4">
         <v>0.57299999999999995</v>
@@ -715,13 +703,13 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -749,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5">
         <v>0.57299999999999995</v>
@@ -772,13 +760,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -806,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <v>0.57299999999999995</v>
@@ -829,13 +817,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -863,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7">
         <v>0.57299999999999995</v>
@@ -886,13 +874,13 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -920,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8">
         <v>0.57299999999999995</v>
@@ -943,13 +931,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -977,7 +965,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9">
         <v>0.57299999999999995</v>
@@ -1000,13 +988,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1034,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10">
         <v>0.57299999999999995</v>
@@ -1057,13 +1045,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>11</v>
@@ -1091,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11">
         <v>0.57299999999999995</v>
@@ -1114,13 +1102,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -1148,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12">
         <v>0.57299999999999995</v>
@@ -1171,13 +1159,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>13</v>
@@ -1205,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M13">
         <v>0.57299999999999995</v>
@@ -1228,13 +1216,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -1262,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14">
         <v>0.57299999999999995</v>
@@ -1285,13 +1273,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>17</v>
@@ -1319,7 +1307,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15">
         <v>0.57299999999999995</v>
@@ -1342,13 +1330,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>18</v>
@@ -1376,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16">
         <v>0.57299999999999995</v>
@@ -1399,13 +1387,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>19</v>
@@ -1433,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17">
         <v>0.57299999999999995</v>
@@ -1456,13 +1444,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>20</v>
@@ -1490,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18">
         <v>0.57299999999999995</v>
@@ -1513,13 +1501,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1547,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19">
         <v>6.5000000000000002E-2</v>
@@ -1570,13 +1558,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1604,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20">
         <v>6.5000000000000002E-2</v>
@@ -1627,13 +1615,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -1661,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21">
         <v>6.5000000000000002E-2</v>
@@ -1684,13 +1672,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -1718,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M22">
         <v>6.5000000000000002E-2</v>
@@ -1741,13 +1729,13 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -1775,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23">
         <v>6.5000000000000002E-2</v>
@@ -1798,13 +1786,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -1832,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24">
         <v>6.5000000000000002E-2</v>
@@ -1855,13 +1843,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -1889,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M25">
         <v>6.5000000000000002E-2</v>
@@ -1912,13 +1900,13 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -1946,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M26">
         <v>6.5000000000000002E-2</v>
@@ -1969,13 +1957,13 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>12</v>
@@ -2003,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M27">
         <v>6.5000000000000002E-2</v>
@@ -2026,13 +2014,13 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>13</v>
@@ -2060,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28">
         <v>6.5000000000000002E-2</v>
@@ -2083,13 +2071,13 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>14</v>
@@ -2117,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M29">
         <v>6.5000000000000002E-2</v>
@@ -2140,13 +2128,13 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30">
         <v>16</v>
@@ -2174,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30">
         <v>6.5000000000000002E-2</v>
@@ -2197,13 +2185,13 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B31">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>17</v>
@@ -2231,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31">
         <v>6.5000000000000002E-2</v>
@@ -2254,13 +2242,13 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32">
         <v>21</v>
@@ -2288,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32">
         <v>6.5000000000000002E-2</v>
@@ -2311,13 +2299,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33">
         <v>22</v>
@@ -2345,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M33">
         <v>6.5000000000000002E-2</v>
@@ -2368,13 +2356,13 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34">
         <v>24</v>
@@ -2402,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M34">
         <v>6.5000000000000002E-2</v>
@@ -2425,13 +2413,13 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>25</v>
@@ -2459,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M35">
         <v>6.5000000000000002E-2</v>
@@ -2482,13 +2470,13 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>27</v>
@@ -2516,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36">
         <v>6.5000000000000002E-2</v>
@@ -2539,13 +2527,13 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>28</v>
@@ -2573,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37">
         <v>6.5000000000000002E-2</v>
@@ -2596,13 +2584,13 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B38">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>29</v>
@@ -2630,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M38">
         <v>6.5000000000000002E-2</v>
@@ -2653,13 +2641,13 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2687,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39">
         <v>0.14099999999999999</v>
@@ -2710,13 +2698,13 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -2744,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M40">
         <v>0.14099999999999999</v>
@@ -2767,13 +2755,13 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -2801,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M41">
         <v>0.14099999999999999</v>
@@ -2824,13 +2812,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -2858,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M42">
         <v>0.14099999999999999</v>
@@ -2881,13 +2869,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -2915,7 +2903,7 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M43">
         <v>0.14099999999999999</v>
@@ -2938,13 +2926,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -2972,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M44">
         <v>0.14099999999999999</v>
@@ -2995,13 +2983,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -3029,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M45">
         <v>0.14099999999999999</v>
@@ -3052,13 +3040,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -3086,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46">
         <v>0.14099999999999999</v>
@@ -3109,13 +3097,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B47">
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47">
         <v>11</v>
@@ -3143,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M47">
         <v>0.14099999999999999</v>
@@ -3166,13 +3154,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -3200,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M48">
         <v>0.14099999999999999</v>
@@ -3223,13 +3211,13 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B49">
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>13</v>
@@ -3257,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M49">
         <v>0.14099999999999999</v>
@@ -3280,13 +3268,13 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B50">
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>14</v>
@@ -3314,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M50">
         <v>0.14099999999999999</v>
@@ -3337,13 +3325,13 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D51">
         <v>15</v>
@@ -3371,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M51">
         <v>0.14099999999999999</v>
@@ -3394,13 +3382,13 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B52">
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>16</v>
@@ -3428,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M52">
         <v>0.14099999999999999</v>
@@ -3451,13 +3439,13 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>17</v>
@@ -3485,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M53">
         <v>0.14099999999999999</v>
@@ -3508,13 +3496,13 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <v>18</v>
@@ -3542,7 +3530,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54">
         <v>0.14099999999999999</v>
@@ -3565,13 +3553,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B55">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>19</v>
@@ -3599,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M55">
         <v>0.14099999999999999</v>
@@ -3622,13 +3610,13 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>11</v>
@@ -3656,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M56">
         <v>3.7999999999999999E-2</v>
@@ -3679,13 +3667,13 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57">
         <v>12</v>
@@ -3713,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M57">
         <v>3.7999999999999999E-2</v>
@@ -3736,13 +3724,13 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>13</v>
@@ -3770,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M58">
         <v>3.7999999999999999E-2</v>
@@ -3793,13 +3781,13 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B59">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>15</v>
@@ -3827,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M59">
         <v>3.7999999999999999E-2</v>
@@ -3850,13 +3838,13 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B60">
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60">
         <v>16</v>
@@ -3884,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M60">
         <v>3.7999999999999999E-2</v>
@@ -3913,7 +3901,7 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3941,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -3970,7 +3958,7 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3998,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4027,7 +4015,7 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -4055,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4084,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>4</v>
@@ -4112,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4141,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>5</v>
@@ -4169,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4198,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D66">
         <v>6</v>
@@ -4226,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4255,7 +4243,7 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -4283,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4312,7 +4300,7 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>8</v>
@@ -4340,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4369,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>9</v>
@@ -4397,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4426,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -4454,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -4483,7 +4471,7 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>11</v>
@@ -4511,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -4540,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>12</v>
@@ -4568,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -4597,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>13</v>
@@ -4625,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -4654,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D74">
         <v>14</v>
@@ -4682,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -4711,7 +4699,7 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4739,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -4768,7 +4756,7 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4796,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -4825,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -4853,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -4882,7 +4870,7 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D78">
         <v>4</v>
@@ -4910,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M78">
         <v>0</v>
@@ -4939,7 +4927,7 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -4967,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -4996,7 +4984,7 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -5024,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M80">
         <v>0</v>
@@ -5053,7 +5041,7 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D81">
         <v>7</v>
@@ -5081,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -5110,7 +5098,7 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -5138,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M82">
         <v>0</v>
@@ -5167,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D83">
         <v>9</v>
@@ -5195,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -5224,7 +5212,7 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D84">
         <v>10</v>
@@ -5252,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -5281,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D85">
         <v>11</v>
@@ -5309,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -5338,7 +5326,7 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D86">
         <v>12</v>
@@ -5366,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -5395,7 +5383,7 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D87">
         <v>13</v>
@@ -5423,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M87">
         <v>0</v>
@@ -5452,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D88">
         <v>14</v>
@@ -5480,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M88">
         <v>0</v>
@@ -5509,7 +5497,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -5537,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -5566,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -5594,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -5623,7 +5611,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -5651,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M91">
         <v>0</v>
@@ -5680,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D92">
         <v>4</v>
@@ -5708,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -5737,7 +5725,7 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D93">
         <v>6</v>
@@ -5765,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -5794,7 +5782,7 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D94">
         <v>7</v>
@@ -5822,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -5851,7 +5839,7 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -5879,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -5908,7 +5896,7 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D96">
         <v>9</v>
@@ -5936,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M96">
         <v>0</v>
@@ -5965,7 +5953,7 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D97">
         <v>11</v>
@@ -5993,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M97">
         <v>0</v>
@@ -6022,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D98">
         <v>12</v>
@@ -6050,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -6079,7 +6067,7 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D99">
         <v>13</v>
@@ -6107,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -6136,7 +6124,7 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D100">
         <v>14</v>
@@ -6164,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -6187,13 +6175,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6221,7 +6209,7 @@
         <v>1</v>
       </c>
       <c r="L101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M101">
         <v>0.13300000000000001</v>
@@ -6244,13 +6232,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B102">
         <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -6278,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M102">
         <v>0.13300000000000001</v>
@@ -6301,13 +6289,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103">
         <v>4</v>
@@ -6335,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M103">
         <v>0.13300000000000001</v>
@@ -6358,13 +6346,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104">
         <v>6</v>
@@ -6392,7 +6380,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M104">
         <v>0.13300000000000001</v>
@@ -6415,13 +6403,13 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105">
         <v>8</v>
@@ -6449,7 +6437,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M105">
         <v>0.13300000000000001</v>
@@ -6472,13 +6460,13 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B106">
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106">
         <v>9</v>
@@ -6506,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M106">
         <v>0.13300000000000001</v>
@@ -6529,13 +6517,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -6563,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M107">
         <v>0.13300000000000001</v>
@@ -6586,13 +6574,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -6620,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M108">
         <v>0</v>
@@ -6643,13 +6631,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -6677,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -6700,13 +6688,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B110">
         <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D110">
         <v>5</v>
@@ -6734,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M110">
         <v>0</v>
@@ -6757,13 +6745,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B111">
         <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D111">
         <v>6</v>
@@ -6791,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -6814,13 +6802,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D112">
         <v>7</v>
@@ -6848,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -6871,13 +6859,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>8</v>
@@ -6905,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -6928,13 +6916,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B114">
         <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D114">
         <v>10</v>
@@ -6962,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -6985,13 +6973,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B115">
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -7019,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M115">
         <v>3.4000000000000002E-2</v>
@@ -7042,13 +7030,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B116">
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -7076,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M116">
         <v>3.4000000000000002E-2</v>
@@ -7099,13 +7087,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B117">
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -7133,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M117">
         <v>3.4000000000000002E-2</v>
@@ -7156,13 +7144,13 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B118">
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D118">
         <v>6</v>
@@ -7190,7 +7178,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M118">
         <v>3.4000000000000002E-2</v>
@@ -7213,13 +7201,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B119">
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119">
         <v>7</v>
@@ -7247,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M119">
         <v>3.4000000000000002E-2</v>
@@ -7270,13 +7258,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B120">
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120">
         <v>8</v>
@@ -7304,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M120">
         <v>3.4000000000000002E-2</v>
@@ -7327,13 +7315,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B121">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121">
         <v>9</v>
@@ -7361,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M121">
         <v>3.4000000000000002E-2</v>
@@ -7384,13 +7372,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B122">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D122">
         <v>10</v>
@@ -7418,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M122">
         <v>3.4000000000000002E-2</v>
@@ -7441,13 +7429,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B123">
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123">
         <v>45</v>
@@ -7475,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M123">
         <v>3.4000000000000002E-2</v>
@@ -7498,13 +7486,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B124">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -7532,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="L124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M124">
         <v>0</v>
@@ -7555,13 +7543,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B125">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <v>4</v>
@@ -7589,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="L125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M125">
         <v>0</v>
@@ -7612,13 +7600,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B126">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D126">
         <v>5</v>
@@ -7646,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M126">
         <v>0</v>
@@ -7669,13 +7657,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B127">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127">
         <v>6</v>
@@ -7703,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -7726,13 +7714,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B128">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D128">
         <v>7</v>
@@ -7760,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M128">
         <v>0</v>
@@ -7783,13 +7771,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B129">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D129">
         <v>8</v>
@@ -7817,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M129">
         <v>0</v>
@@ -7840,13 +7828,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B130">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D130">
         <v>9</v>
@@ -7874,7 +7862,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M130">
         <v>0</v>
@@ -7897,13 +7885,13 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B131">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131">
         <v>10</v>
@@ -7931,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M131">
         <v>0</v>
@@ -7954,13 +7942,13 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B132">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D132">
         <v>11</v>
@@ -7988,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M132">
         <v>0</v>
@@ -8011,13 +7999,13 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B133">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D133">
         <v>12</v>
@@ -8045,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M133">
         <v>0</v>
@@ -8068,13 +8056,13 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B134">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D134">
         <v>13</v>
@@ -8102,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M134">
         <v>0</v>
@@ -8125,13 +8113,13 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B135">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D135">
         <v>14</v>
@@ -8159,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M135">
         <v>0</v>
@@ -8182,13 +8170,13 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B136">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136">
         <v>15</v>
@@ -8216,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M136">
         <v>0</v>
@@ -8239,13 +8227,13 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B137">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137">
         <v>16</v>
@@ -8273,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -8296,13 +8284,13 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B138">
         <v>6</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D138">
         <v>17</v>
@@ -8330,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M138">
         <v>0</v>
@@ -8353,13 +8341,13 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B139">
         <v>6</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D139">
         <v>18</v>
@@ -8387,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M139">
         <v>0</v>
@@ -8410,13 +8398,13 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B140">
         <v>6</v>
       </c>
       <c r="C140" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D140">
         <v>19</v>
@@ -8444,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M140">
         <v>0</v>
@@ -8467,13 +8455,13 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B141">
         <v>6</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D141">
         <v>20</v>
@@ -8501,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M141">
         <v>0</v>
@@ -8524,13 +8512,13 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B142">
         <v>6</v>
       </c>
       <c r="C142" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D142">
         <v>21</v>
@@ -8558,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M142">
         <v>0</v>
@@ -8581,13 +8569,13 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B143">
         <v>6</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D143">
         <v>22</v>
@@ -8615,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M143">
         <v>0</v>
@@ -8638,13 +8626,13 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B144">
         <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D144">
         <v>23</v>
@@ -8672,7 +8660,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M144">
         <v>0</v>
@@ -8695,13 +8683,13 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B145">
         <v>6</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145">
         <v>24</v>
@@ -8729,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M145">
         <v>0</v>
@@ -8752,13 +8740,13 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B146">
         <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D146">
         <v>25</v>
@@ -8786,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M146">
         <v>0</v>
@@ -8809,13 +8797,13 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B147">
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147">
         <v>26</v>
@@ -8843,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M147">
         <v>0</v>
@@ -8866,13 +8854,13 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B148">
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148">
         <v>27</v>
@@ -8900,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M148">
         <v>0</v>
@@ -8923,13 +8911,13 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B149">
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D149">
         <v>28</v>
@@ -8957,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="L149" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M149">
         <v>0</v>
@@ -8980,7 +8968,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B150">
         <v>6</v>
@@ -8992,10 +8980,10 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G150">
         <v>11</v>
@@ -9014,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M150">
         <v>0.28100000000000003</v>
@@ -9037,7 +9025,7 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B151">
         <v>6</v>
@@ -9049,10 +9037,10 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G151">
         <v>8</v>
@@ -9071,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="L151" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M151">
         <v>0.28100000000000003</v>
@@ -9094,7 +9082,7 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B152">
         <v>6</v>
@@ -9106,10 +9094,10 @@
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -9128,7 +9116,7 @@
         <v>1</v>
       </c>
       <c r="L152" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M152">
         <v>0.28100000000000003</v>
@@ -9151,7 +9139,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B153">
         <v>6</v>
@@ -9163,10 +9151,10 @@
         <v>6</v>
       </c>
       <c r="E153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G153">
         <v>12</v>
@@ -9185,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="L153" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M153">
         <v>0.28100000000000003</v>
@@ -9208,7 +9196,7 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B154">
         <v>6</v>
@@ -9220,10 +9208,10 @@
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G154">
         <v>11</v>
@@ -9242,7 +9230,7 @@
         <v>1</v>
       </c>
       <c r="L154" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M154">
         <v>0.28100000000000003</v>
@@ -9265,7 +9253,7 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B155">
         <v>6</v>
@@ -9277,10 +9265,10 @@
         <v>9</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G155">
         <v>9</v>
@@ -9299,7 +9287,7 @@
         <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M155">
         <v>0.28100000000000003</v>
@@ -9322,7 +9310,7 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B156">
         <v>6</v>
@@ -9334,10 +9322,10 @@
         <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G156">
         <v>9</v>
@@ -9356,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M156">
         <v>0.28100000000000003</v>
@@ -9379,7 +9367,7 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B157">
         <v>6</v>
@@ -9391,10 +9379,10 @@
         <v>5</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G157">
         <v>11</v>
@@ -9413,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="L157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M157">
         <v>0.28100000000000003</v>
@@ -9436,7 +9424,7 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B158">
         <v>6</v>
@@ -9448,10 +9436,10 @@
         <v>6</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G158">
         <v>10</v>
@@ -9470,7 +9458,7 @@
         <v>1</v>
       </c>
       <c r="L158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M158">
         <v>0.28100000000000003</v>
@@ -9493,7 +9481,7 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B159">
         <v>6</v>
@@ -9505,10 +9493,10 @@
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G159">
         <v>11</v>
@@ -9527,7 +9515,7 @@
         <v>1</v>
       </c>
       <c r="L159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M159">
         <v>0.28100000000000003</v>
@@ -9550,7 +9538,7 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B160">
         <v>6</v>
@@ -9562,10 +9550,10 @@
         <v>8</v>
       </c>
       <c r="E160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G160">
         <v>11</v>
@@ -9584,7 +9572,7 @@
         <v>1</v>
       </c>
       <c r="L160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M160">
         <v>0.28100000000000003</v>
@@ -9607,7 +9595,7 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B161">
         <v>6</v>
@@ -9619,10 +9607,10 @@
         <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G161">
         <v>12</v>
@@ -9641,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="L161" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M161">
         <v>0.28100000000000003</v>
@@ -9664,7 +9652,7 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B162">
         <v>6</v>
@@ -9676,10 +9664,10 @@
         <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G162">
         <v>10</v>
@@ -9698,7 +9686,7 @@
         <v>1</v>
       </c>
       <c r="L162" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M162">
         <v>0.28100000000000003</v>
@@ -9721,13 +9709,13 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -9755,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="L163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M163">
         <v>0</v>
@@ -9778,13 +9766,13 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B164">
         <v>1</v>
       </c>
       <c r="C164" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -9812,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M164">
         <v>0</v>
@@ -9835,13 +9823,13 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D165">
         <v>5</v>
@@ -9869,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M165">
         <v>0</v>
@@ -9892,13 +9880,13 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D166">
         <v>6</v>
@@ -9926,7 +9914,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M166">
         <v>0</v>
@@ -9949,13 +9937,13 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -9983,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M167">
         <v>0</v>
@@ -10006,13 +9994,13 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D168">
         <v>8</v>
@@ -10040,7 +10028,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M168">
         <v>0</v>
@@ -10063,13 +10051,13 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D169">
         <v>9</v>
@@ -10097,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="L169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M169">
         <v>0</v>
@@ -10120,13 +10108,13 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D170">
         <v>10</v>
@@ -10154,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M170">
         <v>0</v>
@@ -10177,13 +10165,13 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D171">
         <v>11</v>
@@ -10211,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M171">
         <v>0</v>
@@ -10234,13 +10222,13 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D172">
         <v>12</v>
@@ -10268,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M172">
         <v>0</v>
@@ -10291,13 +10279,13 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D173">
         <v>13</v>
@@ -10325,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M173">
         <v>0</v>
@@ -10348,13 +10336,13 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D174">
         <v>14</v>
@@ -10382,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M174">
         <v>0</v>
@@ -10405,13 +10393,13 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -10439,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M175">
         <v>0</v>
@@ -10462,13 +10450,13 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D176">
         <v>4</v>
@@ -10496,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="L176" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M176">
         <v>0</v>
@@ -10519,13 +10507,13 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -10553,7 +10541,7 @@
         <v>0</v>
       </c>
       <c r="L177" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M177">
         <v>0</v>
@@ -10576,13 +10564,13 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -10610,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="L178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M178">
         <v>0</v>
@@ -10633,13 +10621,13 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -10667,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="L179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M179">
         <v>0</v>
@@ -10690,13 +10678,13 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D180">
         <v>4</v>
@@ -10724,7 +10712,7 @@
         <v>0</v>
       </c>
       <c r="L180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M180">
         <v>0</v>
@@ -10747,13 +10735,13 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D181">
         <v>5</v>
@@ -10781,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="L181" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M181">
         <v>0</v>
@@ -10804,13 +10792,13 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D182">
         <v>6</v>
@@ -10838,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L182" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M182">
         <v>0</v>
@@ -10861,13 +10849,13 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D183">
         <v>7</v>
@@ -10895,7 +10883,7 @@
         <v>0</v>
       </c>
       <c r="L183" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M183">
         <v>0</v>
@@ -10918,13 +10906,13 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D184">
         <v>8</v>
@@ -10952,7 +10940,7 @@
         <v>0</v>
       </c>
       <c r="L184" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M184">
         <v>0</v>
@@ -10975,13 +10963,13 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D185">
         <v>9</v>
@@ -11009,7 +10997,7 @@
         <v>0</v>
       </c>
       <c r="L185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M185">
         <v>0</v>
@@ -11032,13 +11020,13 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D186">
         <v>10</v>
@@ -11066,7 +11054,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M186">
         <v>0</v>
@@ -11089,13 +11077,13 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="C187" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D187">
         <v>11</v>
@@ -11123,7 +11111,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M187">
         <v>0</v>
@@ -11146,13 +11134,13 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D188">
         <v>12</v>
@@ -11180,7 +11168,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M188">
         <v>0</v>
@@ -11203,13 +11191,13 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D189">
         <v>13</v>
@@ -11237,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M189">
         <v>0</v>
@@ -11260,13 +11248,13 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D190">
         <v>14</v>
@@ -11294,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="L190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M190">
         <v>0</v>
@@ -11317,13 +11305,13 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -11351,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="L191" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M191">
         <v>0</v>
@@ -11374,13 +11362,13 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -11408,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="L192" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M192">
         <v>0</v>
@@ -11431,13 +11419,13 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -11465,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="L193" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M193">
         <v>0</v>
@@ -11488,13 +11476,13 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D194">
         <v>4</v>
@@ -11522,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="L194" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M194">
         <v>0</v>
@@ -11545,13 +11533,13 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D195">
         <v>5</v>
@@ -11579,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="L195" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M195">
         <v>0</v>
@@ -11602,13 +11590,13 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
       <c r="C196" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D196">
         <v>6</v>
@@ -11636,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="L196" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M196">
         <v>0</v>
@@ -11659,13 +11647,13 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D197">
         <v>7</v>
@@ -11693,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="L197" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M197">
         <v>0</v>
@@ -11716,13 +11704,13 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D198">
         <v>8</v>
@@ -11750,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="L198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M198">
         <v>0</v>
@@ -11773,13 +11761,13 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D199">
         <v>9</v>
@@ -11807,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="L199" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M199">
         <v>0</v>
@@ -11830,13 +11818,13 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D200">
         <v>10</v>
@@ -11864,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="L200" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M200">
         <v>0</v>
@@ -11887,13 +11875,13 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D201">
         <v>11</v>
@@ -11921,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="L201" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M201">
         <v>0</v>
@@ -11944,22 +11932,22 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="C202" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D202">
         <v>12</v>
       </c>
       <c r="E202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G202">
         <v>8</v>
@@ -11978,7 +11966,7 @@
         <v>0</v>
       </c>
       <c r="L202" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M202">
         <v>0</v>
@@ -12001,13 +11989,13 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D203">
         <v>13</v>
@@ -12035,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="L203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M203">
         <v>0</v>
@@ -12058,13 +12046,13 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D204">
         <v>14</v>
@@ -12092,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="L204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M204">
         <v>0</v>
@@ -12115,13 +12103,13 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -12149,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="L205" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M205">
         <v>0</v>
@@ -12172,13 +12160,13 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D206">
         <v>2</v>
@@ -12206,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="L206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M206">
         <v>0</v>
@@ -12229,13 +12217,13 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D207">
         <v>3</v>
@@ -12263,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="L207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M207">
         <v>0</v>
@@ -12286,13 +12274,13 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D208">
         <v>4</v>
@@ -12320,7 +12308,7 @@
         <v>0</v>
       </c>
       <c r="L208" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M208">
         <v>0</v>
@@ -12343,13 +12331,13 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D209">
         <v>5</v>
@@ -12377,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="L209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M209">
         <v>0</v>
@@ -12400,13 +12388,13 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B210">
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D210">
         <v>6</v>
@@ -12434,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="L210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M210">
         <v>0</v>
@@ -12457,13 +12445,13 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D211">
         <v>7</v>
@@ -12491,7 +12479,7 @@
         <v>0</v>
       </c>
       <c r="L211" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M211">
         <v>0</v>
@@ -12514,13 +12502,13 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B212">
         <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D212">
         <v>8</v>
@@ -12548,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="L212" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M212">
         <v>0</v>
@@ -12571,13 +12559,13 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B213">
         <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D213">
         <v>9</v>
@@ -12605,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="L213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M213">
         <v>0</v>
@@ -12628,13 +12616,13 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D214">
         <v>10</v>
@@ -12662,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="L214" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M214">
         <v>0</v>
@@ -12685,13 +12673,13 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D215">
         <v>11</v>
@@ -12719,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="L215" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M215">
         <v>0</v>
@@ -12742,13 +12730,13 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B216">
         <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D216">
         <v>12</v>
@@ -12776,7 +12764,7 @@
         <v>0</v>
       </c>
       <c r="L216" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M216">
         <v>0</v>
@@ -12799,13 +12787,13 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D217">
         <v>13</v>
@@ -12833,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="L217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M217">
         <v>0</v>
@@ -12856,13 +12844,13 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D218">
         <v>14</v>
@@ -12890,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="L218" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M218">
         <v>0</v>
